--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826222.2623878416</v>
+        <v>823375.9062190966</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>12.27738790031057</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.93890542723724</v>
       </c>
       <c r="G2" t="n">
         <v>13.93890542723724</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13.93890542723724</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,26 +735,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>12.27738790031057</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="E3" t="n">
-        <v>12.27738790031057</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.93890542723724</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="I4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>13.93890542723724</v>
@@ -862,20 +862,20 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>12.27738790031057</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.26115480377223</v>
+        <v>54.28416617974037</v>
       </c>
       <c r="G5" t="n">
         <v>55.26115480377223</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="F6" t="n">
-        <v>48.67402515116257</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.515713233384492</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,17 +1051,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.43783333287093</v>
+        <v>34.93619783623065</v>
       </c>
       <c r="W7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>131.0564364728378</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>90.75068848981587</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>131.0564364728378</v>
+        <v>13.30985673690186</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>70.56478601120426</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24.68382075545964</v>
+        <v>24.68382075545924</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>131.0564364728378</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="D9" t="n">
-        <v>91.8689521087064</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>131.0564364728378</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="F9" t="n">
-        <v>131.0564364728378</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>81.47989253410928</v>
       </c>
       <c r="H9" t="n">
-        <v>101.9373738206919</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>52.68461978871503</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>33.95461671116752</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>131.0564364728378</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="F10" t="n">
-        <v>131.0564364728378</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>87.76583169705627</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>128.56732998331</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.15778403774718</v>
+        <v>30.15778403774697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.30695012028309</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>73.96977508724676</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>131.0564364728393</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.7931936102658</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>185.0245626810895</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>136.9968647819697</v>
       </c>
       <c r="U13" t="n">
-        <v>170.3600096228395</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>158.294916057673</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
-        <v>17.98965543945181</v>
+        <v>17.98965543945178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.24586401568268</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>201.239718576303</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9462261850435</v>
+        <v>118.2490676023476</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H15" t="n">
-        <v>86.43532762764654</v>
+        <v>86.43532762764653</v>
       </c>
       <c r="I15" t="n">
-        <v>7.546487457097243</v>
+        <v>7.546487457097228</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>8.747799709353075</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.7513658948475</v>
@@ -1783,7 +1783,7 @@
         <v>142.3149728036959</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.0991900397491</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59222600424924</v>
+        <v>76.59222600424921</v>
       </c>
       <c r="S16" t="n">
         <v>184.9862434029472</v>
@@ -1819,13 +1819,13 @@
         <v>218.3763319019425</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1968686221121</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0.8686273248110865</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.6997011280088</v>
+        <v>378.6997011280089</v>
       </c>
       <c r="H17" t="n">
-        <v>256.7317382035082</v>
+        <v>79.01130049535239</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.63566166346871</v>
+        <v>63.6356616634688</v>
       </c>
       <c r="T17" t="n">
-        <v>169.629516224089</v>
+        <v>169.6295162240891</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3360238328295</v>
+        <v>219.3360238328296</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>160.4004606180989</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H18" t="n">
-        <v>86.43532762764654</v>
+        <v>86.43532762764653</v>
       </c>
       <c r="I18" t="n">
-        <v>7.546487457097257</v>
+        <v>7.546487457097228</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H19" t="n">
-        <v>110.7047704514819</v>
+        <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753511</v>
+        <v>56.48898768753523</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.98202365203525</v>
+        <v>44.98202365203534</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3760410507332</v>
+        <v>153.3760410507333</v>
       </c>
       <c r="T19" t="n">
-        <v>186.7661295497285</v>
+        <v>186.7661295497286</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5866662698981</v>
+        <v>254.5866662698982</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>150.1510702525552</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>123.7230823177656</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>172.5997300118936</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894974</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.63566166346871</v>
+        <v>63.63566166346862</v>
       </c>
       <c r="T20" t="n">
         <v>169.629516224089</v>
@@ -2144,7 +2144,7 @@
         <v>317.630766365199</v>
       </c>
       <c r="X20" t="n">
-        <v>160.4004606180986</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2175,10 +2175,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H21" t="n">
-        <v>86.43532762764654</v>
+        <v>86.43532762764653</v>
       </c>
       <c r="I21" t="n">
-        <v>7.546487457097257</v>
+        <v>7.546487457097186</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>43.43447495166018</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G22" t="n">
-        <v>134.1411635426335</v>
+        <v>63.76479282357783</v>
       </c>
       <c r="H22" t="n">
         <v>110.7047704514819</v>
       </c>
       <c r="I22" t="n">
-        <v>56.48898768753511</v>
+        <v>56.48898768753507</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203525</v>
+        <v>44.98202365203518</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3760410507332</v>
+        <v>153.3760410507331</v>
       </c>
       <c r="T22" t="n">
         <v>186.7661295497285</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221693</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2533,7 +2533,7 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716148</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W25" t="n">
         <v>254.912795984377</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295169</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.1420561179208</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464138</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453003</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221828</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401419</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998826</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645684</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651972</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295161</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F34" t="n">
-        <v>113.810845670718</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510324</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139452995</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221562</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998806</v>
       </c>
     </row>
     <row r="35">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943563</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707172</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221699</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3907,10 +3907,10 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.810845670718</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510289</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442996</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C44" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894974</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295167</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W44" t="n">
         <v>317.630766365199</v>
@@ -4043,7 +4043,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707172</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221569</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424849</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368252</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>41.67591925719419</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.67591925719419</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.67591925719419</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41.67591925719419</v>
+      </c>
+      <c r="F2" t="n">
         <v>29.27451733768856</v>
       </c>
-      <c r="C2" t="n">
-        <v>29.27451733768856</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.27451733768856</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.27451733768856</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>15.19481488593377</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.11511243417898</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="I2" t="n">
         <v>1.11511243417898</v>
@@ -4331,46 +4331,46 @@
         <v>1.11511243417898</v>
       </c>
       <c r="K2" t="n">
-        <v>14.91462880714385</v>
+        <v>5.317632192006799</v>
       </c>
       <c r="L2" t="n">
-        <v>14.91462880714385</v>
+        <v>5.317632192006799</v>
       </c>
       <c r="M2" t="n">
+        <v>14.35707259005436</v>
+      </c>
+      <c r="N2" t="n">
         <v>28.15658896301923</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>28.15658896301923</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.95610533598411</v>
-      </c>
-      <c r="O2" t="n">
-        <v>55.75562170894898</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.75562170894898</v>
       </c>
       <c r="Q2" t="n">
         <v>55.75562170894898</v>
       </c>
       <c r="R2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="S2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="U2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="V2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="W2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="X2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="Y2" t="n">
         <v>41.67591925719419</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.5962168054394</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="C3" t="n">
-        <v>27.5962168054394</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5962168054394</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="E3" t="n">
         <v>15.19481488593377</v>
       </c>
       <c r="F3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="G3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="H3" t="n">
         <v>1.11511243417898</v>
@@ -4416,10 +4416,10 @@
         <v>14.91462880714385</v>
       </c>
       <c r="M3" t="n">
-        <v>28.71414518010872</v>
+        <v>22.84122271046065</v>
       </c>
       <c r="N3" t="n">
-        <v>42.5136615530736</v>
+        <v>36.64073908342552</v>
       </c>
       <c r="O3" t="n">
         <v>50.4402554563904</v>
@@ -4431,28 +4431,28 @@
         <v>55.75562170894898</v>
       </c>
       <c r="R3" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="S3" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T3" t="n">
-        <v>27.5962168054394</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="U3" t="n">
-        <v>27.5962168054394</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="V3" t="n">
-        <v>27.5962168054394</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="W3" t="n">
-        <v>27.5962168054394</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="X3" t="n">
-        <v>27.5962168054394</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.5962168054394</v>
+        <v>55.75562170894898</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.27451733768856</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="C4" t="n">
-        <v>29.27451733768856</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="D4" t="n">
-        <v>29.27451733768856</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="E4" t="n">
         <v>29.27451733768856</v>
@@ -4480,7 +4480,7 @@
         <v>29.27451733768856</v>
       </c>
       <c r="H4" t="n">
-        <v>29.27451733768856</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="I4" t="n">
         <v>15.19481488593377</v>
@@ -4492,16 +4492,16 @@
         <v>1.11511243417898</v>
       </c>
       <c r="L4" t="n">
-        <v>1.11511243417898</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="M4" t="n">
-        <v>14.35707259005436</v>
+        <v>28.71414518010872</v>
       </c>
       <c r="N4" t="n">
-        <v>28.15658896301923</v>
+        <v>41.95610533598411</v>
       </c>
       <c r="O4" t="n">
-        <v>41.95610533598411</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="P4" t="n">
         <v>55.75562170894898</v>
@@ -4510,16 +4510,16 @@
         <v>55.75562170894898</v>
       </c>
       <c r="R4" t="n">
-        <v>43.35421978944336</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="S4" t="n">
-        <v>43.35421978944336</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T4" t="n">
-        <v>43.35421978944336</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="U4" t="n">
-        <v>43.35421978944336</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="V4" t="n">
         <v>43.35421978944336</v>
@@ -4531,7 +4531,7 @@
         <v>43.35421978944336</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.27451733768856</v>
+        <v>43.35421978944336</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165.2252709284503</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="C5" t="n">
-        <v>165.2252709284503</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="D5" t="n">
-        <v>116.059588957579</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="E5" t="n">
-        <v>116.059588957579</v>
+        <v>115.0727317615872</v>
       </c>
       <c r="F5" t="n">
         <v>60.2402406709404</v>
@@ -4574,43 +4574,43 @@
         <v>20.26319982421454</v>
       </c>
       <c r="M5" t="n">
-        <v>73.30306790632105</v>
+        <v>74.97174307994904</v>
       </c>
       <c r="N5" t="n">
-        <v>128.0116111620555</v>
+        <v>129.6802863356835</v>
       </c>
       <c r="O5" t="n">
-        <v>166.3360759593544</v>
+        <v>184.388829591418</v>
       </c>
       <c r="P5" t="n">
-        <v>221.0446192150889</v>
+        <v>184.388829591418</v>
       </c>
       <c r="Q5" t="n">
         <v>221.0446192150889</v>
       </c>
       <c r="R5" t="n">
-        <v>221.0446192150889</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="W5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="X5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.2252709284503</v>
+        <v>170.8920800482259</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2252709284503</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2252709284503</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="D6" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="E6" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F6" t="n">
         <v>4.420892384301778</v>
@@ -4653,13 +4653,13 @@
         <v>50.74343353945604</v>
       </c>
       <c r="M6" t="n">
-        <v>105.4519767951905</v>
+        <v>82.88763634679231</v>
       </c>
       <c r="N6" t="n">
-        <v>160.160520050925</v>
+        <v>137.5961796025268</v>
       </c>
       <c r="O6" t="n">
-        <v>214.8690633066595</v>
+        <v>192.3047228582613</v>
       </c>
       <c r="P6" t="n">
         <v>221.0446192150889</v>
@@ -4668,28 +4668,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R6" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S6" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="T6" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="U6" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="V6" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="W6" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X6" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="Y6" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.2402406709404</v>
+        <v>103.4349783481248</v>
       </c>
       <c r="C7" t="n">
-        <v>60.2402406709404</v>
+        <v>103.4349783481248</v>
       </c>
       <c r="D7" t="n">
-        <v>4.420892384301778</v>
+        <v>103.4349783481248</v>
       </c>
       <c r="E7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="F7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="G7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="H7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="I7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="J7" t="n">
         <v>4.420892384301778</v>
       </c>
       <c r="K7" t="n">
+        <v>4.420892384301778</v>
+      </c>
+      <c r="L7" t="n">
         <v>59.12943564003628</v>
       </c>
-      <c r="L7" t="n">
-        <v>113.8379788957708</v>
-      </c>
       <c r="M7" t="n">
-        <v>168.5465221515053</v>
+        <v>111.6275327036199</v>
       </c>
       <c r="N7" t="n">
-        <v>221.0446192150889</v>
+        <v>111.6275327036199</v>
       </c>
       <c r="O7" t="n">
-        <v>221.0446192150889</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="P7" t="n">
         <v>221.0446192150889</v>
@@ -4759,16 +4759,16 @@
         <v>194.5434153582287</v>
       </c>
       <c r="V7" t="n">
-        <v>171.8789372442176</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="W7" t="n">
-        <v>116.059588957579</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="X7" t="n">
-        <v>116.059588957579</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.2402406709404</v>
+        <v>159.2543266347634</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.9123547516568</v>
+        <v>234.5321158902078</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9123547516568</v>
+        <v>234.5321158902078</v>
       </c>
       <c r="D8" t="n">
-        <v>234.5321158902045</v>
+        <v>234.5321158902078</v>
       </c>
       <c r="E8" t="n">
-        <v>234.5321158902045</v>
+        <v>234.5321158902078</v>
       </c>
       <c r="F8" t="n">
-        <v>142.8647537792794</v>
+        <v>227.5866151410043</v>
       </c>
       <c r="G8" t="n">
-        <v>10.48451491782703</v>
+        <v>214.14231540676</v>
       </c>
       <c r="H8" t="n">
-        <v>10.48451491782703</v>
+        <v>142.864753779281</v>
       </c>
       <c r="I8" t="n">
-        <v>10.48451491782703</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="J8" t="n">
-        <v>10.48451491782703</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="K8" t="n">
-        <v>43.56245159453351</v>
+        <v>43.56245159453448</v>
       </c>
       <c r="L8" t="n">
-        <v>121.5003188511685</v>
+        <v>121.5003188511704</v>
       </c>
       <c r="M8" t="n">
-        <v>239.890650637596</v>
+        <v>239.890650637599</v>
       </c>
       <c r="N8" t="n">
-        <v>364.8104701444421</v>
+        <v>364.8104701444462</v>
       </c>
       <c r="O8" t="n">
-        <v>469.433452148273</v>
+        <v>469.4334521482779</v>
       </c>
       <c r="P8" t="n">
-        <v>524.2257458913513</v>
+        <v>524.2257458913571</v>
       </c>
       <c r="Q8" t="n">
-        <v>524.2257458913513</v>
+        <v>524.2257458913571</v>
       </c>
       <c r="R8" t="n">
-        <v>499.2925936131092</v>
+        <v>499.2925936131154</v>
       </c>
       <c r="S8" t="n">
-        <v>499.2925936131092</v>
+        <v>366.9123547516616</v>
       </c>
       <c r="T8" t="n">
-        <v>499.2925936131092</v>
+        <v>366.9123547516616</v>
       </c>
       <c r="U8" t="n">
-        <v>366.9123547516568</v>
+        <v>366.9123547516616</v>
       </c>
       <c r="V8" t="n">
-        <v>366.9123547516568</v>
+        <v>366.9123547516616</v>
       </c>
       <c r="W8" t="n">
-        <v>366.9123547516568</v>
+        <v>366.9123547516616</v>
       </c>
       <c r="X8" t="n">
-        <v>366.9123547516568</v>
+        <v>366.9123547516616</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.9123547516568</v>
+        <v>366.9123547516616</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>524.2257458913513</v>
+        <v>357.5479143923603</v>
       </c>
       <c r="C9" t="n">
-        <v>524.2257458913513</v>
+        <v>225.1676755309065</v>
       </c>
       <c r="D9" t="n">
-        <v>431.4288245694256</v>
+        <v>225.1676755309065</v>
       </c>
       <c r="E9" t="n">
-        <v>299.0485857079733</v>
+        <v>92.78743666945269</v>
       </c>
       <c r="F9" t="n">
-        <v>166.668346846521</v>
+        <v>92.78743666945269</v>
       </c>
       <c r="G9" t="n">
-        <v>166.668346846521</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="H9" t="n">
-        <v>63.70130258319575</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="I9" t="n">
-        <v>10.48451491782703</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="J9" t="n">
-        <v>10.48451491782703</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="K9" t="n">
-        <v>44.48135314596742</v>
+        <v>44.48135314596809</v>
       </c>
       <c r="L9" t="n">
-        <v>136.5168387692775</v>
+        <v>136.5168387692788</v>
       </c>
       <c r="M9" t="n">
-        <v>215.5478311791279</v>
+        <v>215.5478311791308</v>
       </c>
       <c r="N9" t="n">
-        <v>345.2937032872373</v>
+        <v>345.2937032872416</v>
       </c>
       <c r="O9" t="n">
-        <v>455.2828361771948</v>
+        <v>455.2828361771999</v>
       </c>
       <c r="P9" t="n">
-        <v>524.2257458913513</v>
+        <v>524.2257458913571</v>
       </c>
       <c r="Q9" t="n">
-        <v>524.2257458913513</v>
+        <v>524.2257458913571</v>
       </c>
       <c r="R9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="S9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="T9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="U9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="V9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="W9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="X9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
       <c r="Y9" t="n">
-        <v>524.2257458913513</v>
+        <v>489.9281532538141</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>524.2257458913513</v>
+        <v>173.3271618982173</v>
       </c>
       <c r="C10" t="n">
-        <v>524.2257458913513</v>
+        <v>173.3271618982173</v>
       </c>
       <c r="D10" t="n">
-        <v>524.2257458913513</v>
+        <v>173.3271618982173</v>
       </c>
       <c r="E10" t="n">
-        <v>391.845507029899</v>
+        <v>40.94692303676348</v>
       </c>
       <c r="F10" t="n">
-        <v>259.4652681684466</v>
+        <v>40.94692303676348</v>
       </c>
       <c r="G10" t="n">
-        <v>259.4652681684466</v>
+        <v>40.94692303676348</v>
       </c>
       <c r="H10" t="n">
-        <v>170.8129129188949</v>
+        <v>40.94692303676348</v>
       </c>
       <c r="I10" t="n">
-        <v>40.94692303676357</v>
+        <v>40.94692303676348</v>
       </c>
       <c r="J10" t="n">
-        <v>10.48451491782703</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="K10" t="n">
-        <v>91.25843338499821</v>
+        <v>10.48451491782714</v>
       </c>
       <c r="L10" t="n">
-        <v>221.0043054931077</v>
+        <v>140.230387025938</v>
       </c>
       <c r="M10" t="n">
-        <v>350.7501776012171</v>
+        <v>269.9762591340489</v>
       </c>
       <c r="N10" t="n">
-        <v>480.4960497093265</v>
+        <v>394.4798737832462</v>
       </c>
       <c r="O10" t="n">
-        <v>524.2257458913513</v>
+        <v>524.2257458913571</v>
       </c>
       <c r="P10" t="n">
-        <v>524.2257458913513</v>
+        <v>524.2257458913571</v>
       </c>
       <c r="Q10" t="n">
-        <v>524.2257458913513</v>
+        <v>512.8045841536974</v>
       </c>
       <c r="R10" t="n">
-        <v>524.2257458913513</v>
+        <v>512.8045841536974</v>
       </c>
       <c r="S10" t="n">
-        <v>524.2257458913513</v>
+        <v>438.0876396211249</v>
       </c>
       <c r="T10" t="n">
-        <v>524.2257458913513</v>
+        <v>438.0876396211249</v>
       </c>
       <c r="U10" t="n">
-        <v>524.2257458913513</v>
+        <v>438.0876396211249</v>
       </c>
       <c r="V10" t="n">
-        <v>524.2257458913513</v>
+        <v>305.7074007596711</v>
       </c>
       <c r="W10" t="n">
-        <v>524.2257458913513</v>
+        <v>305.7074007596711</v>
       </c>
       <c r="X10" t="n">
-        <v>524.2257458913513</v>
+        <v>305.7074007596711</v>
       </c>
       <c r="Y10" t="n">
-        <v>524.2257458913513</v>
+        <v>173.3271618982173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675981</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
         <v>1320.35562273557</v>
@@ -5027,7 +5027,7 @@
         <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G11" t="n">
         <v>108.5090151927147</v>
@@ -5039,19 +5039,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3192.291725247109</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3192.291725247109</v>
+        <v>3138.712323951505</v>
       </c>
       <c r="V11" t="n">
-        <v>3192.291725247109</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="W11" t="n">
-        <v>2839.523069976995</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X11" t="n">
-        <v>2466.057311715915</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y11" t="n">
-        <v>2075.917979740103</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5124,46 +5124,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.4387267498527</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4387267498529</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5200,13 +5200,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764913</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U13" t="n">
-        <v>1341.761230683997</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V13" t="n">
-        <v>1087.07674247811</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W13" t="n">
-        <v>1087.07674247811</v>
+        <v>865.8788942318773</v>
       </c>
       <c r="X13" t="n">
-        <v>859.0871915800924</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y13" t="n">
-        <v>859.0871915800924</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2074.754340161453</v>
+        <v>1914.860485557742</v>
       </c>
       <c r="C14" t="n">
-        <v>1705.791823221041</v>
+        <v>1545.897968617331</v>
       </c>
       <c r="D14" t="n">
-        <v>1347.526124614291</v>
+        <v>1187.63227001058</v>
       </c>
       <c r="E14" t="n">
-        <v>961.7378720160464</v>
+        <v>801.844017412336</v>
       </c>
       <c r="F14" t="n">
-        <v>550.7519672264388</v>
+        <v>390.8581126227286</v>
       </c>
       <c r="G14" t="n">
         <v>390.8581126227286</v>
       </c>
       <c r="H14" t="n">
-        <v>99.60362721290822</v>
+        <v>99.60362721290819</v>
       </c>
       <c r="I14" t="n">
-        <v>81.43225808214881</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J14" t="n">
         <v>321.7197547946562</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049091</v>
+        <v>732.5869425049084</v>
       </c>
       <c r="L14" t="n">
         <v>1279.20578207939</v>
@@ -5288,40 +5288,40 @@
         <v>1919.094000724846</v>
       </c>
       <c r="N14" t="n">
-        <v>2573.950088109354</v>
+        <v>2573.950088109355</v>
       </c>
       <c r="O14" t="n">
-        <v>3178.976860646705</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359282</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.54778670733</v>
+        <v>3974.547786707331</v>
       </c>
       <c r="R14" t="n">
-        <v>4071.61290410744</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="S14" t="n">
-        <v>3975.404960657256</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="T14" t="n">
-        <v>3772.132517650889</v>
+        <v>3868.340461101074</v>
       </c>
       <c r="U14" t="n">
-        <v>3518.65148110034</v>
+        <v>3748.89695847244</v>
       </c>
       <c r="V14" t="n">
-        <v>3187.588593756769</v>
+        <v>3417.83407112887</v>
       </c>
       <c r="W14" t="n">
-        <v>2834.819938486655</v>
+        <v>3065.065415858756</v>
       </c>
       <c r="X14" t="n">
-        <v>2461.354180225575</v>
+        <v>2691.599657597676</v>
       </c>
       <c r="Y14" t="n">
-        <v>2461.354180225575</v>
+        <v>2301.460325621864</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>89.05497268527733</v>
       </c>
       <c r="I15" t="n">
-        <v>81.43225808214881</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J15" t="n">
-        <v>81.43225808214881</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="K15" t="n">
-        <v>81.43225808214881</v>
+        <v>372.0282999172189</v>
       </c>
       <c r="L15" t="n">
-        <v>410.7594407449957</v>
+        <v>809.0930810985877</v>
       </c>
       <c r="M15" t="n">
-        <v>940.1502935420008</v>
+        <v>1338.483933895593</v>
       </c>
       <c r="N15" t="n">
-        <v>1497.961191876644</v>
+        <v>1896.294832230236</v>
       </c>
       <c r="O15" t="n">
         <v>1986.029391449523</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.4762722969751</v>
+        <v>1095.455322248446</v>
       </c>
       <c r="C16" t="n">
-        <v>690.6401109743963</v>
+        <v>926.5191393205381</v>
       </c>
       <c r="D16" t="n">
-        <v>540.5234715620605</v>
+        <v>776.4024999082023</v>
       </c>
       <c r="E16" t="n">
-        <v>392.6103779796674</v>
+        <v>628.4894063258092</v>
       </c>
       <c r="F16" t="n">
-        <v>392.6103779796674</v>
+        <v>481.5994588278988</v>
       </c>
       <c r="G16" t="n">
-        <v>225.1847558636599</v>
+        <v>314.1738367118912</v>
       </c>
       <c r="H16" t="n">
-        <v>81.43225808214881</v>
+        <v>170.4213389303802</v>
       </c>
       <c r="I16" t="n">
-        <v>81.43225808214881</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J16" t="n">
-        <v>145.7639349251848</v>
+        <v>145.7639349251849</v>
       </c>
       <c r="K16" t="n">
-        <v>381.3174786021264</v>
+        <v>381.3174786021268</v>
       </c>
       <c r="L16" t="n">
-        <v>738.2713508649244</v>
+        <v>738.2713508649249</v>
       </c>
       <c r="M16" t="n">
-        <v>1125.018283634585</v>
+        <v>1125.018283634586</v>
       </c>
       <c r="N16" t="n">
-        <v>1508.003855186735</v>
+        <v>1508.003855186736</v>
       </c>
       <c r="O16" t="n">
-        <v>1845.736723011683</v>
+        <v>1845.736723011684</v>
       </c>
       <c r="P16" t="n">
-        <v>2111.204854362884</v>
+        <v>2111.204854362885</v>
       </c>
       <c r="Q16" t="n">
-        <v>2211.566148063615</v>
+        <v>2211.566148063616</v>
       </c>
       <c r="R16" t="n">
-        <v>2134.200263210838</v>
+        <v>2134.200263210839</v>
       </c>
       <c r="S16" t="n">
-        <v>1947.34547189473</v>
+        <v>1947.345471894731</v>
       </c>
       <c r="T16" t="n">
-        <v>1726.763318458424</v>
+        <v>1726.763318458426</v>
       </c>
       <c r="U16" t="n">
-        <v>1437.675572375483</v>
+        <v>1726.763318458426</v>
       </c>
       <c r="V16" t="n">
-        <v>1437.675572375483</v>
+        <v>1726.763318458426</v>
       </c>
       <c r="W16" t="n">
-        <v>1148.258402338523</v>
+        <v>1725.885917120233</v>
       </c>
       <c r="X16" t="n">
-        <v>920.2688514405053</v>
+        <v>1497.896366222215</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.4762722969751</v>
+        <v>1277.103787078685</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.566580433992</v>
+        <v>1940.050986789392</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.533560819049</v>
+        <v>1603.017967174449</v>
       </c>
       <c r="D17" t="n">
-        <v>1456.197359537767</v>
+        <v>1276.681765893167</v>
       </c>
       <c r="E17" t="n">
-        <v>1102.338604264992</v>
+        <v>922.823010620391</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008528</v>
+        <v>543.7666031562517</v>
       </c>
       <c r="G17" t="n">
-        <v>340.7572461665005</v>
+        <v>161.2416525218987</v>
       </c>
       <c r="H17" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="I17" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J17" t="n">
         <v>321.7197547946562</v>
       </c>
       <c r="K17" t="n">
-        <v>732.5869425049086</v>
+        <v>732.5869425049091</v>
       </c>
       <c r="L17" t="n">
         <v>1279.205782079391</v>
       </c>
       <c r="M17" t="n">
-        <v>1919.094000724846</v>
+        <v>1919.094000724847</v>
       </c>
       <c r="N17" t="n">
-        <v>2573.950088109354</v>
+        <v>2573.950088109355</v>
       </c>
       <c r="O17" t="n">
-        <v>3178.976860646705</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359282</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q17" t="n">
-        <v>3974.54778670733</v>
+        <v>3974.547786707331</v>
       </c>
       <c r="R17" t="n">
-        <v>4071.612904107439</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="S17" t="n">
-        <v>4007.334457982723</v>
+        <v>4007.334457982725</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.991512301825</v>
+        <v>3835.991512301827</v>
       </c>
       <c r="U17" t="n">
-        <v>3614.439973076745</v>
+        <v>3614.439973076747</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.306583058642</v>
+        <v>3315.306583058645</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.467425113998</v>
+        <v>2994.467425113999</v>
       </c>
       <c r="X17" t="n">
-        <v>2832.446757822989</v>
+        <v>2652.931164178388</v>
       </c>
       <c r="Y17" t="n">
-        <v>2474.236923172646</v>
+        <v>2294.721329528045</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.3633844303749</v>
       </c>
       <c r="H18" t="n">
-        <v>89.05497268527732</v>
+        <v>89.05497268527733</v>
       </c>
       <c r="I18" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J18" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="K18" t="n">
-        <v>81.43225808214878</v>
+        <v>372.0282999172189</v>
       </c>
       <c r="L18" t="n">
-        <v>518.4970392635174</v>
+        <v>390.7795219637196</v>
       </c>
       <c r="M18" t="n">
-        <v>1047.887892060523</v>
+        <v>920.1703747607249</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.698790395166</v>
+        <v>1477.981273095368</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.766989968044</v>
+        <v>1966.049472668247</v>
       </c>
       <c r="P18" t="n">
-        <v>2466.151682734554</v>
+        <v>2338.434165434757</v>
       </c>
       <c r="Q18" t="n">
-        <v>2557.424193196089</v>
+        <v>2537.444274414813</v>
       </c>
       <c r="R18" t="n">
         <v>2557.424193196089</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.9488409701639</v>
+        <v>871.9488409701651</v>
       </c>
       <c r="C19" t="n">
-        <v>734.9421553677257</v>
+        <v>734.9421553677267</v>
       </c>
       <c r="D19" t="n">
-        <v>616.7550132808587</v>
+        <v>616.7550132808595</v>
       </c>
       <c r="E19" t="n">
-        <v>500.7714170239344</v>
+        <v>500.771417023935</v>
       </c>
       <c r="F19" t="n">
-        <v>385.8109668514927</v>
+        <v>385.8109668514932</v>
       </c>
       <c r="G19" t="n">
-        <v>250.3148420609538</v>
+        <v>250.3148420609541</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049115</v>
+        <v>138.4918416049117</v>
       </c>
       <c r="I19" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J19" t="n">
         <v>177.0580352538766</v>
@@ -5677,7 +5677,7 @@
         <v>443.90567925951</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518509999</v>
+        <v>832.1536518509997</v>
       </c>
       <c r="M19" t="n">
         <v>1250.194684949352</v>
@@ -5701,22 +5701,22 @@
         <v>2261.557269175202</v>
       </c>
       <c r="T19" t="n">
-        <v>2072.904613064366</v>
+        <v>2072.904613064365</v>
       </c>
       <c r="U19" t="n">
         <v>1815.746364306892</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.991373426474</v>
+        <v>1664.078616577038</v>
       </c>
       <c r="W19" t="n">
-        <v>1335.503700714982</v>
+        <v>1406.590943865546</v>
       </c>
       <c r="X19" t="n">
-        <v>1210.530890292996</v>
+        <v>1210.530890292998</v>
       </c>
       <c r="Y19" t="n">
-        <v>1021.667808474935</v>
+        <v>1021.667808474936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2119.566580433992</v>
+        <v>1940.050986789392</v>
       </c>
       <c r="C20" t="n">
-        <v>1782.53356081905</v>
+        <v>1603.017967174449</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.197359537768</v>
+        <v>1276.681765893167</v>
       </c>
       <c r="E20" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008534</v>
+        <v>723.2821968008528</v>
       </c>
       <c r="G20" t="n">
         <v>340.7572461665005</v>
       </c>
       <c r="H20" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="I20" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J20" t="n">
-        <v>321.7197547946557</v>
+        <v>321.7197547946558</v>
       </c>
       <c r="K20" t="n">
-        <v>732.5869425049073</v>
+        <v>732.5869425049084</v>
       </c>
       <c r="L20" t="n">
-        <v>1279.205782079388</v>
+        <v>1279.20578207939</v>
       </c>
       <c r="M20" t="n">
-        <v>1919.094000724844</v>
+        <v>1919.094000724846</v>
       </c>
       <c r="N20" t="n">
-        <v>2573.950088109352</v>
+        <v>2573.950088109355</v>
       </c>
       <c r="O20" t="n">
-        <v>3178.976860646704</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P20" t="n">
-        <v>3660.852212359281</v>
+        <v>3660.852212359283</v>
       </c>
       <c r="Q20" t="n">
-        <v>3974.54778670733</v>
+        <v>3974.547786707331</v>
       </c>
       <c r="R20" t="n">
-        <v>4071.612904107439</v>
+        <v>4071.612904107441</v>
       </c>
       <c r="S20" t="n">
-        <v>4007.334457982723</v>
+        <v>4007.334457982725</v>
       </c>
       <c r="T20" t="n">
-        <v>3835.991512301825</v>
+        <v>3835.991512301827</v>
       </c>
       <c r="U20" t="n">
-        <v>3614.439973076745</v>
+        <v>3614.439973076747</v>
       </c>
       <c r="V20" t="n">
-        <v>3315.306583058643</v>
+        <v>3315.306583058645</v>
       </c>
       <c r="W20" t="n">
-        <v>2994.467425113997</v>
+        <v>2994.467425113999</v>
       </c>
       <c r="X20" t="n">
-        <v>2832.446757822989</v>
+        <v>2652.931164178388</v>
       </c>
       <c r="Y20" t="n">
-        <v>2474.236923172646</v>
+        <v>2294.721329528045</v>
       </c>
     </row>
     <row r="21">
@@ -5814,40 +5814,40 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9303822454023</v>
+        <v>458.9303822454021</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3958242722872</v>
+        <v>312.3958242722871</v>
       </c>
       <c r="G21" t="n">
-        <v>176.3633844303749</v>
+        <v>176.3633844303748</v>
       </c>
       <c r="H21" t="n">
-        <v>89.05497268527732</v>
+        <v>89.05497268527729</v>
       </c>
       <c r="I21" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J21" t="n">
-        <v>205.7279980329769</v>
+        <v>205.7279980329772</v>
       </c>
       <c r="K21" t="n">
-        <v>496.3240398680468</v>
+        <v>496.3240398680474</v>
       </c>
       <c r="L21" t="n">
-        <v>933.3888210494154</v>
+        <v>933.3888210494165</v>
       </c>
       <c r="M21" t="n">
-        <v>1462.77967384642</v>
+        <v>1462.779673846422</v>
       </c>
       <c r="N21" t="n">
-        <v>1696.9713008567</v>
+        <v>1497.961191876643</v>
       </c>
       <c r="O21" t="n">
-        <v>2185.039500429579</v>
+        <v>1986.029391449522</v>
       </c>
       <c r="P21" t="n">
-        <v>2557.424193196089</v>
+        <v>2358.414084216033</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.424193196089</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.8615978196015</v>
+        <v>800.8615978196028</v>
       </c>
       <c r="C22" t="n">
-        <v>663.8549122171632</v>
+        <v>663.8549122171646</v>
       </c>
       <c r="D22" t="n">
-        <v>545.6677701302962</v>
+        <v>545.6677701302975</v>
       </c>
       <c r="E22" t="n">
-        <v>429.6841738733718</v>
+        <v>429.6841738733731</v>
       </c>
       <c r="F22" t="n">
-        <v>385.8109668514928</v>
+        <v>314.7237237009315</v>
       </c>
       <c r="G22" t="n">
         <v>250.3148420609539</v>
@@ -5905,55 +5905,55 @@
         <v>138.4918416049115</v>
       </c>
       <c r="I22" t="n">
-        <v>81.43225808214878</v>
+        <v>81.43225808214882</v>
       </c>
       <c r="J22" t="n">
-        <v>177.0580352538766</v>
+        <v>177.0580352538765</v>
       </c>
       <c r="K22" t="n">
-        <v>443.9056792595101</v>
+        <v>443.9056792595102</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518509999</v>
+        <v>832.1536518510004</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.194684949352</v>
+        <v>1250.194684949353</v>
       </c>
       <c r="N22" t="n">
-        <v>1664.474356830194</v>
+        <v>1664.474356830195</v>
       </c>
       <c r="O22" t="n">
-        <v>2033.501324983834</v>
+        <v>2033.501324983835</v>
       </c>
       <c r="P22" t="n">
-        <v>2330.263556663727</v>
+        <v>2330.263556663728</v>
       </c>
       <c r="Q22" t="n">
-        <v>2461.91895069315</v>
+        <v>2461.918950693152</v>
       </c>
       <c r="R22" t="n">
-        <v>2416.482563165842</v>
+        <v>2416.482563165843</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.557269175202</v>
+        <v>2261.557269175204</v>
       </c>
       <c r="T22" t="n">
         <v>2072.904613064366</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.746364306892</v>
+        <v>1815.746364306894</v>
       </c>
       <c r="V22" t="n">
-        <v>1592.991373426474</v>
+        <v>1592.991373426476</v>
       </c>
       <c r="W22" t="n">
-        <v>1335.503700714982</v>
+        <v>1335.503700714984</v>
       </c>
       <c r="X22" t="n">
-        <v>1139.443647142434</v>
+        <v>1139.443647142435</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.5805653243724</v>
+        <v>950.5805653243738</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5990,16 +5990,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
@@ -6017,7 +6017,7 @@
         <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400161</v>
@@ -6026,7 +6026,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
@@ -6066,22 +6066,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694435</v>
+        <v>922.4654228388475</v>
       </c>
       <c r="M24" t="n">
-        <v>1087.697503179732</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.552851106135</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O24" t="n">
-        <v>2171.957806054384</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6145,13 +6145,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6169,22 +6169,22 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
@@ -6209,10 +6209,10 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162837</v>
@@ -6227,22 +6227,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767227</v>
@@ -6251,7 +6251,7 @@
         <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283563</v>
@@ -6303,22 +6303,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511621</v>
+        <v>468.6667932445202</v>
       </c>
       <c r="L27" t="n">
-        <v>535.3638672866915</v>
+        <v>922.4654228388475</v>
       </c>
       <c r="M27" t="n">
-        <v>1084.28233189698</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.137679823383</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C28" t="n">
         <v>735.8557341477712</v>
@@ -6367,10 +6367,10 @@
         <v>617.6685920609042</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749441</v>
@@ -6385,7 +6385,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L28" t="n">
         <v>857.3827676902788</v>
@@ -6406,25 +6406,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.58138725498</v>
@@ -6440,7 +6440,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
@@ -6452,52 +6452,52 @@
         <v>725.1782574796673</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
@@ -6506,7 +6506,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511618</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511618</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694434</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N30" t="n">
-        <v>1665.552851106135</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O30" t="n">
-        <v>2171.957806054384</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E31" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315376</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H31" t="n">
         <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042784</v>
@@ -6625,7 +6625,7 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,7 +6634,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
         <v>2392.455631028688</v>
@@ -6646,25 +6646,25 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076832</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283562</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334501</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277774</v>
       </c>
       <c r="M33" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N33" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464468</v>
       </c>
       <c r="O33" t="n">
-        <v>2171.957806054384</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502131</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147775</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609082</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039839</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315424</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254984</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6938,13 +6938,13 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
         <v>2681.771598889755</v>
@@ -6965,22 +6965,22 @@
         <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7026,10 @@
         <v>1522.315654538066</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823383</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E37" t="n">
         <v>501.6849958039799</v>
@@ -7087,7 +7087,7 @@
         <v>251.2943450749442</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511621</v>
@@ -7117,28 +7117,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162833</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511572</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511621</v>
@@ -7175,7 +7175,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7257,19 +7257,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277775</v>
+        <v>922.4654228388475</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538066</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O39" t="n">
-        <v>2100.171002464469</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2487.272558016624</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.724545631539</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749442</v>
@@ -7330,7 +7330,7 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
         <v>459.5287020443611</v>
@@ -7351,31 +7351,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7412,16 +7412,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233287</v>
@@ -7488,25 +7488,25 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>326.5159252754119</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M42" t="n">
-        <v>875.4343898857007</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.289737812103</v>
+        <v>1662.137679823383</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7555,7 +7555,7 @@
         <v>501.6849958039807</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749442</v>
@@ -7567,13 +7567,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7585,7 +7585,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511621</v>
@@ -7646,22 +7646,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612703</v>
@@ -7725,22 +7725,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>535.3638672866915</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
-        <v>1662.137679823383</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477713</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H46" t="n">
         <v>140.057470989793</v>
@@ -7807,10 +7807,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7831,19 +7831,19 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
@@ -7979,25 +7979,25 @@
         <v>65.29236085646849</v>
       </c>
       <c r="K2" t="n">
-        <v>60.54420052128521</v>
+        <v>50.85026454639929</v>
       </c>
       <c r="L2" t="n">
         <v>20.54348275905164</v>
       </c>
       <c r="M2" t="n">
-        <v>4.244969452351333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.2467531491298</v>
+        <v>0.307847721892557</v>
       </c>
       <c r="P2" t="n">
-        <v>35.11223672545285</v>
+        <v>49.05114215269009</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.02716749247355</v>
+        <v>88.9660729197108</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8140,19 +8140,19 @@
         <v>57.9369253307096</v>
       </c>
       <c r="L4" t="n">
-        <v>43.93144097118262</v>
+        <v>57.87034639841987</v>
       </c>
       <c r="M4" t="n">
-        <v>56.40406722691952</v>
+        <v>56.96725532498971</v>
       </c>
       <c r="N4" t="n">
-        <v>48.00724248301907</v>
+        <v>47.44405438494888</v>
       </c>
       <c r="O4" t="n">
         <v>65.92480045234984</v>
       </c>
       <c r="P4" t="n">
-        <v>77.67633575955841</v>
+        <v>63.73743033232117</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.780617298235427</v>
+        <v>5.466147776647546</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>16.54957420044005</v>
       </c>
       <c r="P5" t="n">
-        <v>57.0712122000252</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>87.04466784445262</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>101.1290019093975</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
         <v>83.74833088504644</v>
       </c>
       <c r="M7" t="n">
-        <v>82.00569282084165</v>
+        <v>79.77291888937611</v>
       </c>
       <c r="N7" t="n">
-        <v>71.20009869781896</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>92.56394902735028</v>
       </c>
       <c r="P7" t="n">
-        <v>51.173501012562</v>
+        <v>106.4346558163342</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.90263957511786</v>
+        <v>11.90263957511729</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.096985734021104</v>
+        <v>7.096985734020421</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>26.0970568088805</v>
+        <v>26.09705680888018</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.87140106986584</v>
+        <v>3.871401069865414</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>25.15394971114596</v>
       </c>
       <c r="L10" t="n">
-        <v>133.0369554344478</v>
+        <v>133.0369554344488</v>
       </c>
       <c r="M10" t="n">
-        <v>129.8534210647898</v>
+        <v>129.8534210647908</v>
       </c>
       <c r="N10" t="n">
-        <v>121.9451312278286</v>
+        <v>116.6499216733715</v>
       </c>
       <c r="O10" t="n">
-        <v>56.27391681757832</v>
+        <v>143.1589430055437</v>
       </c>
       <c r="P10" t="n">
-        <v>29.61030140879454</v>
+        <v>29.61030140879419</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>181.1247765293543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>65.97060927781243</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.55208449419945</v>
       </c>
       <c r="U13" t="n">
-        <v>115.8518285827734</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>252.0149874225498</v>
+        <v>410.3099034802228</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.24586401568267</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>132.6971585826959</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>158.4990213892748</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.09919003974912</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1968686221121</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>285.6543710117799</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>177.7204377081559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>177.7204377081562</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>70.3763707190589</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>70.3763707190575</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>177.7204377081542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>177.7204377081564</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.37637071905706</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>70.37637071905567</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-7.638334409421077e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.572164703451563e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.212008767965017e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.212008767965017e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978446.3074507947</v>
+        <v>978446.3074507951</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997449.0031373868</v>
+        <v>997449.0031373866</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997449.0031373864</v>
+        <v>997449.0031373866</v>
       </c>
     </row>
     <row r="12">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
@@ -26326,34 +26326,34 @@
         <v>412753.6070665927</v>
       </c>
       <c r="G2" t="n">
-        <v>442863.4045690013</v>
+        <v>442863.4045690012</v>
       </c>
       <c r="H2" t="n">
-        <v>442863.4045690012</v>
+        <v>442863.4045690015</v>
       </c>
       <c r="I2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="J2" t="n">
         <v>451572.973425356</v>
-      </c>
-      <c r="J2" t="n">
-        <v>451572.9734253564</v>
       </c>
       <c r="K2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="L2" t="n">
+        <v>451572.9734253563</v>
+      </c>
+      <c r="M2" t="n">
         <v>451572.973425356</v>
       </c>
-      <c r="M2" t="n">
-        <v>451572.9734253563</v>
-      </c>
       <c r="N2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253565</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>65806.79407012099</v>
       </c>
       <c r="D3" t="n">
-        <v>108217.2128452464</v>
+        <v>108217.2128452482</v>
       </c>
       <c r="E3" t="n">
-        <v>686367.2446748021</v>
+        <v>686367.2446748003</v>
       </c>
       <c r="F3" t="n">
-        <v>173736.0360376483</v>
+        <v>173736.0360376486</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177102</v>
+        <v>25288.1618817711</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.505213837546762e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.8941666813</v>
+        <v>39037.8941666805</v>
       </c>
       <c r="J3" t="n">
-        <v>3647.030971604099</v>
+        <v>3647.030971604085</v>
       </c>
       <c r="K3" t="n">
-        <v>10635.02467753994</v>
+        <v>10635.02467754</v>
       </c>
       <c r="L3" t="n">
-        <v>44471.26551467681</v>
+        <v>44471.26551467696</v>
       </c>
       <c r="M3" t="n">
-        <v>174528.7800972959</v>
+        <v>174528.7800972956</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376338</v>
+        <v>45679.31917376344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>349671.7072326378</v>
       </c>
       <c r="C4" t="n">
-        <v>329990.1586268987</v>
+        <v>329990.1586268986</v>
       </c>
       <c r="D4" t="n">
-        <v>296366.7545015232</v>
+        <v>296366.7545015226</v>
       </c>
       <c r="E4" t="n">
         <v>12820.12292715301</v>
@@ -26430,34 +26430,34 @@
         <v>12916.64240756736</v>
       </c>
       <c r="G4" t="n">
-        <v>44241.37410721771</v>
+        <v>44241.3741072176</v>
       </c>
       <c r="H4" t="n">
-        <v>44241.37410721771</v>
+        <v>44241.37410721772</v>
       </c>
       <c r="I4" t="n">
         <v>44009.48294107163</v>
       </c>
       <c r="J4" t="n">
-        <v>44009.48294107168</v>
+        <v>44009.48294107166</v>
       </c>
       <c r="K4" t="n">
-        <v>44009.48294107161</v>
+        <v>44009.4829410716</v>
       </c>
       <c r="L4" t="n">
+        <v>44009.48294107176</v>
+      </c>
+      <c r="M4" t="n">
         <v>44009.48294107163</v>
       </c>
-      <c r="M4" t="n">
-        <v>44009.48294107162</v>
-      </c>
       <c r="N4" t="n">
+        <v>44009.48294107164</v>
+      </c>
+      <c r="O4" t="n">
         <v>44009.48294107163</v>
       </c>
-      <c r="O4" t="n">
-        <v>44009.48294107162</v>
-      </c>
       <c r="P4" t="n">
-        <v>44009.48294107163</v>
+        <v>44009.48294107169</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>45639.02497530233</v>
       </c>
       <c r="D5" t="n">
-        <v>52402.72557771252</v>
+        <v>52402.72557771264</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>88963.40690525342</v>
+        <v>88963.40690525345</v>
       </c>
       <c r="G5" t="n">
-        <v>91620.84500680168</v>
+        <v>91620.84500680171</v>
       </c>
       <c r="H5" t="n">
-        <v>91620.84500680168</v>
+        <v>91620.84500680174</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26494,10 +26494,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215527</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271549.6120321246</v>
+        <v>-271549.6120321249</v>
       </c>
       <c r="C6" t="n">
-        <v>10136.99575303385</v>
+        <v>10136.99575303379</v>
       </c>
       <c r="D6" t="n">
-        <v>-5413.719499126186</v>
+        <v>-5413.719499127765</v>
       </c>
       <c r="E6" t="n">
-        <v>-398396.8992953356</v>
+        <v>-398744.5182251401</v>
       </c>
       <c r="F6" t="n">
-        <v>137137.5217161236</v>
+        <v>136961.0700508562</v>
       </c>
       <c r="G6" t="n">
-        <v>281713.0235732109</v>
+        <v>281673.4346238637</v>
       </c>
       <c r="H6" t="n">
-        <v>307001.1854549819</v>
+        <v>306961.5965056344</v>
       </c>
       <c r="I6" t="n">
-        <v>273419.1622154478</v>
+        <v>273419.1622154485</v>
       </c>
       <c r="J6" t="n">
-        <v>308810.0254105253</v>
+        <v>308810.025410525</v>
       </c>
       <c r="K6" t="n">
         <v>301822.031704589</v>
@@ -26552,16 +26552,16 @@
         <v>267985.7908674523</v>
       </c>
       <c r="M6" t="n">
-        <v>137928.2762848336</v>
+        <v>137928.2762848335</v>
       </c>
       <c r="N6" t="n">
-        <v>266777.7372083653</v>
+        <v>266777.7372083656</v>
       </c>
       <c r="O6" t="n">
-        <v>312457.0563821291</v>
+        <v>312457.0563821292</v>
       </c>
       <c r="P6" t="n">
-        <v>312457.0563821291</v>
+        <v>312457.0563821296</v>
       </c>
     </row>
   </sheetData>
@@ -26698,25 +26698,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N2" t="n">
         <v>31.610202352214</v>
@@ -26725,7 +26725,7 @@
         <v>31.610202352214</v>
       </c>
       <c r="P2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>495.7290935855037</v>
+        <v>495.7290935855053</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1241.967466184419</v>
       </c>
       <c r="H3" t="n">
-        <v>1241.967466184419</v>
+        <v>1241.96746618442</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620123</v>
@@ -26793,7 +26793,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="D4" t="n">
-        <v>131.0564364728378</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
@@ -26814,10 +26814,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
+        <v>1062.255112188953</v>
+      </c>
+      <c r="L4" t="n">
         <v>1062.255112188952</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-6.750155989720952e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>57.60671140298479</v>
       </c>
       <c r="D3" t="n">
-        <v>98.86915031793563</v>
+        <v>98.86915031793723</v>
       </c>
       <c r="E3" t="n">
-        <v>594.0476070077946</v>
+        <v>594.047607007793</v>
       </c>
       <c r="F3" t="n">
-        <v>152.1907655911209</v>
+        <v>152.1907655911211</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>36.19240443570357</v>
+        <v>36.19240443570266</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>41.32224937653498</v>
       </c>
       <c r="D4" t="n">
-        <v>75.79528166906559</v>
+        <v>75.79528166906702</v>
       </c>
       <c r="E4" t="n">
-        <v>700.3450189294549</v>
+        <v>700.3450189294535</v>
       </c>
       <c r="F4" t="n">
-        <v>186.5017706245673</v>
+        <v>186.5017706245675</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.3518861620928</v>
+        <v>44.35188616209234</v>
       </c>
       <c r="J4" t="n">
         <v>13.93890542723724</v>
       </c>
       <c r="K4" t="n">
-        <v>41.32224937653453</v>
+        <v>41.32224937653498</v>
       </c>
       <c r="L4" t="n">
-        <v>75.79528166906604</v>
+        <v>75.79528166906657</v>
       </c>
       <c r="M4" t="n">
-        <v>700.3450189294549</v>
+        <v>700.345018929454</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245673</v>
+        <v>186.5017706245675</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>41.32224937653498</v>
       </c>
       <c r="L4" t="n">
-        <v>75.79528166906559</v>
+        <v>75.79528166906702</v>
       </c>
       <c r="M4" t="n">
-        <v>700.3450189294549</v>
+        <v>700.3450189294535</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245673</v>
+        <v>186.5017706245675</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.45645376317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>392.9371403144742</v>
+        <v>394.5986578414009</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>325.5074567455836</v>
       </c>
       <c r="I2" t="n">
-        <v>157.8967530017251</v>
+        <v>143.9578475744879</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.25939512250086</v>
+        <v>64.19830054973811</v>
       </c>
       <c r="S2" t="n">
         <v>177.9417458832737</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>372.2990332288164</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>154.2557957495568</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>158.7695935610785</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>133.5061601374015</v>
       </c>
       <c r="E3" t="n">
-        <v>145.3676925550904</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>131.1303069661466</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.613802664483</v>
       </c>
       <c r="H3" t="n">
-        <v>105.1879384198378</v>
+        <v>91.2490329926006</v>
       </c>
       <c r="I3" t="n">
         <v>64.2726906803115</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40.912619760547</v>
+        <v>54.85152518778424</v>
       </c>
       <c r="S3" t="n">
         <v>158.1290443401915</v>
       </c>
       <c r="T3" t="n">
-        <v>183.2845617573622</v>
+        <v>197.2234671845994</v>
       </c>
       <c r="U3" t="n">
         <v>225.8933745481638</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.4950572193319</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>167.3792112354243</v>
       </c>
       <c r="H4" t="n">
-        <v>156.7879977408238</v>
+        <v>142.8490923135865</v>
       </c>
       <c r="I4" t="n">
-        <v>123.1140335818564</v>
+        <v>137.0529390090937</v>
       </c>
       <c r="J4" t="n">
         <v>36.16826839089678</v>
@@ -27582,7 +27582,7 @@
         <v>34.93480524014232</v>
       </c>
       <c r="R4" t="n">
-        <v>137.5086840538716</v>
+        <v>149.7860719541821</v>
       </c>
       <c r="S4" t="n">
         <v>213.3551481109984</v>
@@ -27594,7 +27594,7 @@
         <v>286.2856601861436</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.8602554235174</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.6457479248575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>327.4726868597083</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>306.0090164695204</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.6148909379392</v>
+        <v>352.591879561971</v>
       </c>
       <c r="G5" t="n">
         <v>358.4461658540058</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>117.4033531454492</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27698,13 +27698,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>92.18391076086652</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>102.3839256516287</v>
       </c>
       <c r="F6" t="n">
-        <v>96.39518724222131</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>100.5663383780076</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27752,7 +27752,7 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>231.2848739160408</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>124.5708253781651</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>93.35431821444013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>91.17280784279694</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
-        <v>229.6998099909571</v>
+        <v>217.2014454875973</v>
       </c>
       <c r="W7" t="n">
-        <v>231.2618435328188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.3234985483226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>251.6774051906413</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>223.6266051478451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>316.1253572518956</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>282.253420264064</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.0652118456866</v>
+        <v>248.5004258344823</v>
       </c>
       <c r="I8" t="n">
-        <v>133.6453533675712</v>
+        <v>2.588916894731682</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.6072988522567</v>
+        <v>32.55086237941732</v>
       </c>
       <c r="T8" t="n">
         <v>214.3720139574156</v>
       </c>
       <c r="U8" t="n">
-        <v>120.12978597274</v>
+        <v>251.1862224455778</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>35.47674717702807</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>41.65206251547647</v>
       </c>
       <c r="D9" t="n">
-        <v>55.57611345593236</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>26.58864398256313</v>
+        <v>26.58864398256168</v>
       </c>
       <c r="F9" t="n">
-        <v>14.01277592054606</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2772319430456</v>
+        <v>54.79733940893631</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.9373738206919</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>52.68461978871492</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.95461671116773</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.8773908082283</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>15.37752617373135</v>
+        <v>15.3775261737299</v>
       </c>
       <c r="F10" t="n">
-        <v>14.36461155009343</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.0970416487144</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5134219001108</v>
+        <v>154.279253597167</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>128.5673299833099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.30695012028333</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>137.0987012644826</v>
+        <v>137.0987012644825</v>
       </c>
       <c r="S10" t="n">
-        <v>208.4377017680639</v>
+        <v>134.4679266808171</v>
       </c>
       <c r="T10" t="n">
-        <v>224.1260373957375</v>
+        <v>224.1260373957374</v>
       </c>
       <c r="U10" t="n">
         <v>286.2702691177776</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>121.0812068509887</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>87.52821687925552</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
-        <v>17.98965543945184</v>
+        <v>17.98965543945178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I20" t="n">
-        <v>17.98965543945184</v>
+        <v>17.9896554394517</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605503</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605503</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605503</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605503</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="K34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605503</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="38">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605503</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="K46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="R46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
   </sheetData>
@@ -31136,13 +31136,13 @@
         <v>152.4932852071114</v>
       </c>
       <c r="M3" t="n">
-        <v>156.0729393492556</v>
+        <v>150.1406944304191</v>
       </c>
       <c r="N3" t="n">
         <v>145.2806175105706</v>
       </c>
       <c r="O3" t="n">
-        <v>150.6029049528453</v>
+        <v>156.5351498716817</v>
       </c>
       <c r="P3" t="n">
         <v>139.3434642350965</v>
@@ -31373,7 +31373,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>197.3951887257905</v>
+        <v>174.6029256466004</v>
       </c>
       <c r="N6" t="n">
         <v>186.6028668871055</v>
@@ -31382,7 +31382,7 @@
         <v>197.8573992482167</v>
       </c>
       <c r="P6" t="n">
-        <v>140.21234267537</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.992880778233179</v>
+        <v>1.992880778233185</v>
       </c>
       <c r="H8" t="n">
-        <v>20.40959027008055</v>
+        <v>20.40959027008062</v>
       </c>
       <c r="I8" t="n">
-        <v>76.83053620283471</v>
+        <v>76.83053620283496</v>
       </c>
       <c r="J8" t="n">
-        <v>169.1432649515684</v>
+        <v>169.143264951569</v>
       </c>
       <c r="K8" t="n">
-        <v>253.5019082941789</v>
+        <v>253.5019082941798</v>
       </c>
       <c r="L8" t="n">
-        <v>314.4915334110327</v>
+        <v>314.4915334110337</v>
       </c>
       <c r="M8" t="n">
-        <v>349.932426950937</v>
+        <v>349.9324269509381</v>
       </c>
       <c r="N8" t="n">
-        <v>355.594699462092</v>
+        <v>355.5946994620932</v>
       </c>
       <c r="O8" t="n">
-        <v>335.7779912235358</v>
+        <v>335.7779912235369</v>
       </c>
       <c r="P8" t="n">
-        <v>286.5787470109042</v>
+        <v>286.5787470109051</v>
       </c>
       <c r="Q8" t="n">
-        <v>215.2087041404284</v>
+        <v>215.2087041404291</v>
       </c>
       <c r="R8" t="n">
-        <v>125.18529718569</v>
+        <v>125.1852971856904</v>
       </c>
       <c r="S8" t="n">
-        <v>45.41277073398862</v>
+        <v>45.41277073398876</v>
       </c>
       <c r="T8" t="n">
-        <v>8.723835606715745</v>
+        <v>8.723835606715774</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1594304622586543</v>
+        <v>0.1594304622586548</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.066285220165046</v>
+        <v>1.066285220165049</v>
       </c>
       <c r="H9" t="n">
-        <v>10.29807041580452</v>
+        <v>10.29807041580455</v>
       </c>
       <c r="I9" t="n">
-        <v>36.71201306270004</v>
+        <v>36.71201306270016</v>
       </c>
       <c r="J9" t="n">
-        <v>100.7405698577862</v>
+        <v>100.7405698577865</v>
       </c>
       <c r="K9" t="n">
-        <v>172.1816796088442</v>
+        <v>172.1816796088448</v>
       </c>
       <c r="L9" t="n">
-        <v>231.5195167731166</v>
+        <v>231.5195167731174</v>
       </c>
       <c r="M9" t="n">
-        <v>221.9633191844935</v>
+        <v>221.963319184495</v>
       </c>
       <c r="N9" t="n">
-        <v>262.3981485561711</v>
+        <v>262.3981485561726</v>
       </c>
       <c r="O9" t="n">
-        <v>253.6963786767247</v>
+        <v>253.6963786767255</v>
       </c>
       <c r="P9" t="n">
-        <v>203.6137101559025</v>
+        <v>203.6137101559031</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.1103730161557</v>
+        <v>136.1103730161561</v>
       </c>
       <c r="R9" t="n">
-        <v>66.2032174414754</v>
+        <v>66.20321744147562</v>
       </c>
       <c r="S9" t="n">
-        <v>19.8057802956095</v>
+        <v>19.80578029560956</v>
       </c>
       <c r="T9" t="n">
-        <v>4.297877707595073</v>
+        <v>4.297877707595086</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07015034343191093</v>
+        <v>0.07015034343191115</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8939377097443508</v>
+        <v>0.8939377097443536</v>
       </c>
       <c r="H10" t="n">
-        <v>7.947918910272507</v>
+        <v>7.947918910272532</v>
       </c>
       <c r="I10" t="n">
-        <v>26.8831449439483</v>
+        <v>26.88314494394839</v>
       </c>
       <c r="J10" t="n">
-        <v>63.2013960789256</v>
+        <v>63.2013960789258</v>
       </c>
       <c r="K10" t="n">
-        <v>103.8593084593891</v>
+        <v>103.8593084593894</v>
       </c>
       <c r="L10" t="n">
-        <v>132.9041573196283</v>
+        <v>132.9041573196288</v>
       </c>
       <c r="M10" t="n">
-        <v>140.1287993556531</v>
+        <v>140.1287993556535</v>
       </c>
       <c r="N10" t="n">
-        <v>136.7968497102424</v>
+        <v>136.7968497102429</v>
       </c>
       <c r="O10" t="n">
-        <v>126.3540319191379</v>
+        <v>126.3540319191383</v>
       </c>
       <c r="P10" t="n">
-        <v>108.1177026403531</v>
+        <v>108.1177026403534</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.85509313141105</v>
+        <v>74.85509313141129</v>
       </c>
       <c r="R10" t="n">
-        <v>40.19469011268689</v>
+        <v>40.19469011268702</v>
       </c>
       <c r="S10" t="n">
-        <v>15.57889626890836</v>
+        <v>15.57889626890841</v>
       </c>
       <c r="T10" t="n">
-        <v>3.819552032544043</v>
+        <v>3.819552032544056</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04876023871332828</v>
+        <v>0.04876023871332844</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.992834034912234</v>
+        <v>4.992834034912235</v>
       </c>
       <c r="H14" t="n">
-        <v>51.13286156004493</v>
+        <v>51.13286156004494</v>
       </c>
       <c r="I14" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J14" t="n">
-        <v>423.7605476706326</v>
+        <v>423.7605476706327</v>
       </c>
       <c r="K14" t="n">
-        <v>635.1072123684676</v>
+        <v>635.1072123684677</v>
       </c>
       <c r="L14" t="n">
-        <v>787.9066569644131</v>
+        <v>787.9066569644132</v>
       </c>
       <c r="M14" t="n">
-        <v>876.6979692327835</v>
+        <v>876.6979692327836</v>
       </c>
       <c r="N14" t="n">
-        <v>890.883858934478</v>
+        <v>890.8838589344781</v>
       </c>
       <c r="O14" t="n">
-        <v>841.2363654998194</v>
+        <v>841.2363654998195</v>
       </c>
       <c r="P14" t="n">
-        <v>717.9757752629234</v>
+        <v>717.9757752629235</v>
       </c>
       <c r="Q14" t="n">
-        <v>539.1699063876289</v>
+        <v>539.169906387629</v>
       </c>
       <c r="R14" t="n">
-        <v>313.6311109455559</v>
+        <v>313.631110945556</v>
       </c>
       <c r="S14" t="n">
         <v>113.7742055705627</v>
@@ -32029,7 +32029,7 @@
         <v>21.85613098782832</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3994267227929786</v>
+        <v>0.3994267227929788</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H15" t="n">
-        <v>25.80011660884992</v>
+        <v>25.80011660884993</v>
       </c>
       <c r="I15" t="n">
-        <v>91.97589254290276</v>
+        <v>91.97589254290277</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>431.3727943633186</v>
       </c>
       <c r="L15" t="n">
-        <v>471.2080996413357</v>
+        <v>580.0339567307518</v>
       </c>
       <c r="M15" t="n">
-        <v>676.8722690705084</v>
+        <v>676.8722690705085</v>
       </c>
       <c r="N15" t="n">
-        <v>694.7870639365083</v>
+        <v>694.7870639365084</v>
       </c>
       <c r="O15" t="n">
-        <v>635.5944258311905</v>
+        <v>233.2372133528144</v>
       </c>
       <c r="P15" t="n">
-        <v>510.1205617239363</v>
+        <v>510.1205617239364</v>
       </c>
       <c r="Q15" t="n">
-        <v>341.0020861870881</v>
+        <v>341.0020861870882</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>49.6201152763303</v>
+        <v>49.62011527633031</v>
       </c>
       <c r="T15" t="n">
-        <v>10.76762359833472</v>
+        <v>10.76762359833473</v>
       </c>
       <c r="U15" t="n">
         <v>0.1757501131393047</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.239613463611247</v>
+        <v>2.239613463611248</v>
       </c>
       <c r="H16" t="n">
-        <v>19.91219970374365</v>
+        <v>19.91219970374366</v>
       </c>
       <c r="I16" t="n">
-        <v>67.35128488750917</v>
+        <v>67.35128488750918</v>
       </c>
       <c r="J16" t="n">
         <v>158.3406718773152</v>
@@ -32163,28 +32163,28 @@
         <v>332.9694416718032</v>
       </c>
       <c r="M16" t="n">
-        <v>351.0695904822612</v>
+        <v>351.0695904822613</v>
       </c>
       <c r="N16" t="n">
-        <v>342.7219402997105</v>
+        <v>342.7219402997106</v>
       </c>
       <c r="O16" t="n">
-        <v>316.5591830202517</v>
+        <v>316.5591830202518</v>
       </c>
       <c r="P16" t="n">
-        <v>270.871068362582</v>
+        <v>270.8710683625821</v>
       </c>
       <c r="Q16" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R16" t="n">
-        <v>100.7011653729202</v>
+        <v>100.7011653729203</v>
       </c>
       <c r="S16" t="n">
         <v>39.03035463402509</v>
       </c>
       <c r="T16" t="n">
-        <v>9.569257526338964</v>
+        <v>9.569257526338966</v>
       </c>
       <c r="U16" t="n">
         <v>0.1221607343787955</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.992834034912233</v>
+        <v>4.992834034912235</v>
       </c>
       <c r="H17" t="n">
-        <v>51.13286156004492</v>
+        <v>51.13286156004494</v>
       </c>
       <c r="I17" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J17" t="n">
-        <v>423.7605476706325</v>
+        <v>423.7605476706327</v>
       </c>
       <c r="K17" t="n">
-        <v>635.1072123684675</v>
+        <v>635.1072123684677</v>
       </c>
       <c r="L17" t="n">
-        <v>787.9066569644129</v>
+        <v>787.9066569644132</v>
       </c>
       <c r="M17" t="n">
-        <v>876.6979692327833</v>
+        <v>876.6979692327836</v>
       </c>
       <c r="N17" t="n">
-        <v>890.8838589344778</v>
+        <v>890.8838589344781</v>
       </c>
       <c r="O17" t="n">
-        <v>841.2363654998192</v>
+        <v>841.2363654998195</v>
       </c>
       <c r="P17" t="n">
-        <v>717.9757752629233</v>
+        <v>717.9757752629235</v>
       </c>
       <c r="Q17" t="n">
-        <v>539.1699063876288</v>
+        <v>539.169906387629</v>
       </c>
       <c r="R17" t="n">
-        <v>313.6311109455559</v>
+        <v>313.631110945556</v>
       </c>
       <c r="S17" t="n">
-        <v>113.7742055705626</v>
+        <v>113.7742055705627</v>
       </c>
       <c r="T17" t="n">
-        <v>21.85613098782831</v>
+        <v>21.85613098782832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3994267227929786</v>
+        <v>0.3994267227929788</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H18" t="n">
-        <v>25.80011660884992</v>
+        <v>25.80011660884993</v>
       </c>
       <c r="I18" t="n">
-        <v>91.97589254290274</v>
+        <v>91.97589254290277</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>431.3727943633186</v>
       </c>
       <c r="L18" t="n">
-        <v>580.0339567307516</v>
+        <v>157.4950081096729</v>
       </c>
       <c r="M18" t="n">
-        <v>676.8722690705083</v>
+        <v>676.8722690705085</v>
       </c>
       <c r="N18" t="n">
-        <v>694.7870639365082</v>
+        <v>694.7870639365084</v>
       </c>
       <c r="O18" t="n">
-        <v>635.5944258311904</v>
+        <v>635.5944258311906</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239362</v>
+        <v>510.1205617239364</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.1762290976727</v>
+        <v>341.0020861870882</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>165.8612401066665</v>
       </c>
       <c r="S18" t="n">
-        <v>49.6201152763303</v>
+        <v>49.62011527633031</v>
       </c>
       <c r="T18" t="n">
-        <v>10.76762359833472</v>
+        <v>10.76762359833473</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1757501131393046</v>
+        <v>0.1757501131393047</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.239613463611247</v>
+        <v>2.239613463611248</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91219970374365</v>
+        <v>19.91219970374366</v>
       </c>
       <c r="I19" t="n">
-        <v>67.35128488750917</v>
+        <v>67.35128488750918</v>
       </c>
       <c r="J19" t="n">
         <v>158.3406718773152</v>
       </c>
       <c r="K19" t="n">
-        <v>260.2023642268339</v>
+        <v>260.202364226834</v>
       </c>
       <c r="L19" t="n">
-        <v>332.9694416718031</v>
+        <v>332.9694416718032</v>
       </c>
       <c r="M19" t="n">
-        <v>351.0695904822612</v>
+        <v>351.0695904822613</v>
       </c>
       <c r="N19" t="n">
-        <v>342.7219402997105</v>
+        <v>342.7219402997106</v>
       </c>
       <c r="O19" t="n">
-        <v>316.5591830202517</v>
+        <v>316.5591830202518</v>
       </c>
       <c r="P19" t="n">
-        <v>270.871068362582</v>
+        <v>270.8710683625821</v>
       </c>
       <c r="Q19" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R19" t="n">
-        <v>100.7011653729202</v>
+        <v>100.7011653729203</v>
       </c>
       <c r="S19" t="n">
-        <v>39.03035463402508</v>
+        <v>39.03035463402509</v>
       </c>
       <c r="T19" t="n">
-        <v>9.569257526338962</v>
+        <v>9.569257526338966</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1221607343787954</v>
+        <v>0.1221607343787955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.992834034912233</v>
+        <v>4.992834034912237</v>
       </c>
       <c r="H20" t="n">
-        <v>51.13286156004492</v>
+        <v>51.13286156004496</v>
       </c>
       <c r="I20" t="n">
-        <v>192.4862341309541</v>
+        <v>192.4862341309542</v>
       </c>
       <c r="J20" t="n">
-        <v>423.7605476706325</v>
+        <v>423.7605476706329</v>
       </c>
       <c r="K20" t="n">
-        <v>635.1072123684675</v>
+        <v>635.107212368468</v>
       </c>
       <c r="L20" t="n">
-        <v>787.9066569644129</v>
+        <v>787.9066569644135</v>
       </c>
       <c r="M20" t="n">
-        <v>876.6979692327833</v>
+        <v>876.697969232784</v>
       </c>
       <c r="N20" t="n">
-        <v>890.8838589344778</v>
+        <v>890.8838589344784</v>
       </c>
       <c r="O20" t="n">
-        <v>841.2363654998192</v>
+        <v>841.2363654998198</v>
       </c>
       <c r="P20" t="n">
-        <v>717.9757752629233</v>
+        <v>717.9757752629239</v>
       </c>
       <c r="Q20" t="n">
-        <v>539.1699063876288</v>
+        <v>539.1699063876292</v>
       </c>
       <c r="R20" t="n">
-        <v>313.6311109455559</v>
+        <v>313.6311109455561</v>
       </c>
       <c r="S20" t="n">
-        <v>113.7742055705626</v>
+        <v>113.7742055705627</v>
       </c>
       <c r="T20" t="n">
-        <v>21.85613098782831</v>
+        <v>21.85613098782833</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3994267227929786</v>
+        <v>0.3994267227929789</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.67140171971743</v>
+        <v>2.671401719717431</v>
       </c>
       <c r="H21" t="n">
-        <v>25.80011660884992</v>
+        <v>25.80011660884994</v>
       </c>
       <c r="I21" t="n">
-        <v>91.97589254290274</v>
+        <v>91.97589254290281</v>
       </c>
       <c r="J21" t="n">
-        <v>252.3888791422507</v>
+        <v>252.3888791422509</v>
       </c>
       <c r="K21" t="n">
-        <v>431.3727943633185</v>
+        <v>431.3727943633188</v>
       </c>
       <c r="L21" t="n">
-        <v>580.0339567307516</v>
+        <v>580.033956730752</v>
       </c>
       <c r="M21" t="n">
-        <v>676.8722690705083</v>
+        <v>676.8722690705088</v>
       </c>
       <c r="N21" t="n">
-        <v>367.8989110836161</v>
+        <v>166.8785989825467</v>
       </c>
       <c r="O21" t="n">
-        <v>635.5944258311904</v>
+        <v>635.5944258311908</v>
       </c>
       <c r="P21" t="n">
-        <v>510.1205617239362</v>
+        <v>510.1205617239366</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>341.0020861870883</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>49.6201152763303</v>
+        <v>49.62011527633033</v>
       </c>
       <c r="T21" t="n">
-        <v>10.76762359833472</v>
+        <v>10.76762359833473</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1757501131393046</v>
+        <v>0.1757501131393048</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.239613463611247</v>
+        <v>2.239613463611249</v>
       </c>
       <c r="H22" t="n">
-        <v>19.91219970374365</v>
+        <v>19.91219970374366</v>
       </c>
       <c r="I22" t="n">
-        <v>67.35128488750917</v>
+        <v>67.35128488750921</v>
       </c>
       <c r="J22" t="n">
-        <v>158.3406718773152</v>
+        <v>158.3406718773153</v>
       </c>
       <c r="K22" t="n">
-        <v>260.2023642268339</v>
+        <v>260.2023642268341</v>
       </c>
       <c r="L22" t="n">
-        <v>332.9694416718031</v>
+        <v>332.9694416718033</v>
       </c>
       <c r="M22" t="n">
-        <v>351.0695904822612</v>
+        <v>351.0695904822614</v>
       </c>
       <c r="N22" t="n">
-        <v>342.7219402997105</v>
+        <v>342.7219402997107</v>
       </c>
       <c r="O22" t="n">
-        <v>316.5591830202517</v>
+        <v>316.5591830202519</v>
       </c>
       <c r="P22" t="n">
-        <v>270.871068362582</v>
+        <v>270.8710683625822</v>
       </c>
       <c r="Q22" t="n">
-        <v>187.5370873938473</v>
+        <v>187.5370873938474</v>
       </c>
       <c r="R22" t="n">
-        <v>100.7011653729202</v>
+        <v>100.7011653729203</v>
       </c>
       <c r="S22" t="n">
-        <v>39.03035463402508</v>
+        <v>39.03035463402511</v>
       </c>
       <c r="T22" t="n">
-        <v>9.569257526338962</v>
+        <v>9.569257526338969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1221607343787954</v>
+        <v>0.1221607343787955</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>545.4906045328007</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879668</v>
@@ -32804,7 +32804,7 @@
         <v>654.1164009578282</v>
       </c>
       <c r="P24" t="n">
-        <v>521.5364117268593</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>392.4972796419695</v>
       </c>
       <c r="L27" t="n">
-        <v>593.4871659531825</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879668</v>
@@ -33041,7 +33041,7 @@
         <v>654.1164009578282</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155583</v>
@@ -33272,13 +33272,13 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160627</v>
+        <v>663.5877533333052</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578282</v>
       </c>
       <c r="P30" t="n">
-        <v>521.5364117268593</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33497,10 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155583</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578282</v>
+        <v>602.670171575071</v>
       </c>
       <c r="P33" t="n">
-        <v>521.5364117268593</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33746,13 +33746,13 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N36" t="n">
-        <v>272.5760810584001</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33977,7 +33977,7 @@
         <v>443.9435090247269</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155583</v>
+        <v>545.4906045328007</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879668</v>
@@ -33986,13 +33986,13 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>209.0440289417427</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,16 +34208,16 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L42" t="n">
-        <v>382.5296487700718</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879668</v>
+        <v>254.1392278303041</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160627</v>
@@ -34229,7 +34229,7 @@
         <v>524.9860796892349</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
-        <v>593.4871659531825</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879668</v>
@@ -34460,10 +34460,10 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.93890542723724</v>
+        <v>4.244969452351333</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>13.37571732916705</v>
+        <v>9.130747876815718</v>
       </c>
       <c r="N2" t="n">
         <v>13.93890542723724</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>13.93890542723724</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>13.93890542723724</v>
       </c>
       <c r="M3" t="n">
-        <v>13.93890542723724</v>
+        <v>8.006660508400806</v>
       </c>
       <c r="N3" t="n">
         <v>13.93890542723724</v>
       </c>
       <c r="O3" t="n">
-        <v>8.006660508400808</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="P3" t="n">
         <v>5.369056820766247</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="M4" t="n">
+        <v>13.93890542723724</v>
+      </c>
+      <c r="N4" t="n">
         <v>13.37571732916705</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13.93890542723724</v>
       </c>
       <c r="O4" t="n">
         <v>13.93890542723724</v>
       </c>
       <c r="P4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>53.57562432536011</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="N5" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>37.02605012492007</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>55.26115480377223</v>
+        <v>32.46889172458209</v>
       </c>
       <c r="N6" t="n">
         <v>55.26115480377223</v>
@@ -35030,7 +35030,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="P6" t="n">
-        <v>6.237935261039771</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="M7" t="n">
+        <v>53.02838087230671</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="N7" t="n">
-        <v>53.0283808723067</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>33.4120572491984</v>
+        <v>33.41205724919922</v>
       </c>
       <c r="L8" t="n">
-        <v>78.72511844104542</v>
+        <v>78.72511844104645</v>
       </c>
       <c r="M8" t="n">
-        <v>119.5861937236643</v>
+        <v>119.5861937236653</v>
       </c>
       <c r="N8" t="n">
-        <v>126.1816358655011</v>
+        <v>126.1816358655022</v>
       </c>
       <c r="O8" t="n">
-        <v>105.6797798018491</v>
+        <v>105.6797798018502</v>
       </c>
       <c r="P8" t="n">
-        <v>55.34575125563464</v>
+        <v>55.34575125563555</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>34.34024063448524</v>
+        <v>34.34024063448581</v>
       </c>
       <c r="L9" t="n">
-        <v>92.96513699324245</v>
+        <v>92.96513699324319</v>
       </c>
       <c r="M9" t="n">
-        <v>79.82928526247521</v>
+        <v>79.82928526247667</v>
       </c>
       <c r="N9" t="n">
-        <v>131.0564364728378</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="O9" t="n">
-        <v>111.1001342322803</v>
+        <v>111.1001342322811</v>
       </c>
       <c r="P9" t="n">
-        <v>69.63930274157221</v>
+        <v>69.63930274157286</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>81.58981663350625</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>131.0564364728378</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="M10" t="n">
-        <v>131.0564364728378</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="N10" t="n">
-        <v>131.0564364728378</v>
+        <v>125.7612269183812</v>
       </c>
       <c r="O10" t="n">
-        <v>44.17141028487346</v>
+        <v>131.0564364728393</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.7146431439463</v>
+        <v>242.7146431439464</v>
       </c>
       <c r="K14" t="n">
-        <v>415.017361323487</v>
+        <v>415.0173613234871</v>
       </c>
       <c r="L14" t="n">
         <v>552.1402419944259</v>
       </c>
       <c r="M14" t="n">
-        <v>646.3517360055108</v>
+        <v>646.3517360055109</v>
       </c>
       <c r="N14" t="n">
-        <v>661.470795337887</v>
+        <v>661.4707953378872</v>
       </c>
       <c r="O14" t="n">
-        <v>611.1381540781326</v>
+        <v>611.1381540781327</v>
       </c>
       <c r="P14" t="n">
-        <v>486.7427795076539</v>
+        <v>486.742779507654</v>
       </c>
       <c r="Q14" t="n">
-        <v>316.8642165131794</v>
+        <v>316.8642165131795</v>
       </c>
       <c r="R14" t="n">
-        <v>98.04557313142379</v>
+        <v>98.04557313142385</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>293.5313553889596</v>
       </c>
       <c r="L15" t="n">
-        <v>332.6537198614615</v>
+        <v>441.4795769508776</v>
       </c>
       <c r="M15" t="n">
-        <v>534.73823514849</v>
+        <v>534.7382351484903</v>
       </c>
       <c r="N15" t="n">
-        <v>563.445351853175</v>
+        <v>563.4453518531751</v>
       </c>
       <c r="O15" t="n">
-        <v>492.9981813867461</v>
+        <v>90.64096890836991</v>
       </c>
       <c r="P15" t="n">
-        <v>376.1461543096061</v>
+        <v>376.1461543096062</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.0203121010666</v>
+        <v>201.0203121010667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64.98149176064243</v>
+        <v>64.98149176064246</v>
       </c>
       <c r="K16" t="n">
         <v>237.9328724009511</v>
@@ -35811,16 +35811,16 @@
         <v>360.5594669321193</v>
       </c>
       <c r="M16" t="n">
-        <v>390.6534674441018</v>
+        <v>390.6534674441019</v>
       </c>
       <c r="N16" t="n">
         <v>386.8541126789391</v>
       </c>
       <c r="O16" t="n">
-        <v>341.1443109342914</v>
+        <v>341.1443109342915</v>
       </c>
       <c r="P16" t="n">
-        <v>268.1496276274755</v>
+        <v>268.1496276274756</v>
       </c>
       <c r="Q16" t="n">
         <v>101.3750441421529</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7146431439463</v>
+        <v>242.7146431439464</v>
       </c>
       <c r="K17" t="n">
-        <v>415.0173613234869</v>
+        <v>415.0173613234871</v>
       </c>
       <c r="L17" t="n">
-        <v>552.1402419944257</v>
+        <v>552.1402419944259</v>
       </c>
       <c r="M17" t="n">
-        <v>646.3517360055106</v>
+        <v>646.3517360055109</v>
       </c>
       <c r="N17" t="n">
-        <v>661.4707953378868</v>
+        <v>661.4707953378872</v>
       </c>
       <c r="O17" t="n">
-        <v>611.1381540781324</v>
+        <v>611.1381540781327</v>
       </c>
       <c r="P17" t="n">
-        <v>486.7427795076538</v>
+        <v>486.742779507654</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.8642165131793</v>
+        <v>316.8642165131795</v>
       </c>
       <c r="R17" t="n">
-        <v>98.04557313142374</v>
+        <v>98.04557313142385</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>293.5313553889596</v>
       </c>
       <c r="L18" t="n">
-        <v>441.4795769508774</v>
+        <v>18.94062832979873</v>
       </c>
       <c r="M18" t="n">
-        <v>534.73823514849</v>
+        <v>534.7382351484903</v>
       </c>
       <c r="N18" t="n">
-        <v>563.4453518531749</v>
+        <v>563.4453518531751</v>
       </c>
       <c r="O18" t="n">
-        <v>492.998181386746</v>
+        <v>492.9981813867462</v>
       </c>
       <c r="P18" t="n">
-        <v>376.146154309606</v>
+        <v>376.1461543096062</v>
       </c>
       <c r="Q18" t="n">
-        <v>92.1944550116512</v>
+        <v>201.0203121010667</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.18173614270253</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.5916941128564</v>
+        <v>96.59169411285633</v>
       </c>
       <c r="K19" t="n">
-        <v>269.5430747531651</v>
+        <v>269.543074753165</v>
       </c>
       <c r="L19" t="n">
         <v>392.1696692843332</v>
@@ -36060,7 +36060,7 @@
         <v>299.7598299796895</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.9852464943669</v>
+        <v>132.9852464943668</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>242.7146431439463</v>
+        <v>242.7146431439466</v>
       </c>
       <c r="K20" t="n">
-        <v>415.0173613234869</v>
+        <v>415.0173613234875</v>
       </c>
       <c r="L20" t="n">
-        <v>552.1402419944257</v>
+        <v>552.1402419944263</v>
       </c>
       <c r="M20" t="n">
-        <v>646.3517360055106</v>
+        <v>646.3517360055113</v>
       </c>
       <c r="N20" t="n">
-        <v>661.4707953378868</v>
+        <v>661.4707953378875</v>
       </c>
       <c r="O20" t="n">
-        <v>611.1381540781324</v>
+        <v>611.1381540781331</v>
       </c>
       <c r="P20" t="n">
-        <v>486.7427795076538</v>
+        <v>486.7427795076543</v>
       </c>
       <c r="Q20" t="n">
-        <v>316.8642165131793</v>
+        <v>316.8642165131797</v>
       </c>
       <c r="R20" t="n">
-        <v>98.04557313142374</v>
+        <v>98.04557313142396</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>125.551252475584</v>
+        <v>125.5512524755842</v>
       </c>
       <c r="K21" t="n">
-        <v>293.5313553889595</v>
+        <v>293.5313553889598</v>
       </c>
       <c r="L21" t="n">
-        <v>441.4795769508774</v>
+        <v>441.4795769508779</v>
       </c>
       <c r="M21" t="n">
-        <v>534.73823514849</v>
+        <v>534.7382351484905</v>
       </c>
       <c r="N21" t="n">
-        <v>236.5571990002828</v>
+        <v>35.53688689921338</v>
       </c>
       <c r="O21" t="n">
-        <v>492.998181386746</v>
+        <v>492.9981813867464</v>
       </c>
       <c r="P21" t="n">
-        <v>376.146154309606</v>
+        <v>376.1461543096063</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>201.0203121010668</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.5916941128564</v>
+        <v>96.59169411285652</v>
       </c>
       <c r="K22" t="n">
-        <v>269.5430747531651</v>
+        <v>269.5430747531653</v>
       </c>
       <c r="L22" t="n">
-        <v>392.1696692843333</v>
+        <v>392.1696692843335</v>
       </c>
       <c r="M22" t="n">
-        <v>422.2636697963158</v>
+        <v>422.263669796316</v>
       </c>
       <c r="N22" t="n">
-        <v>418.4643150311531</v>
+        <v>418.4643150311533</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7545132865054</v>
+        <v>372.7545132865056</v>
       </c>
       <c r="P22" t="n">
-        <v>299.7598299796895</v>
+        <v>299.7598299796897</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.9852464943669</v>
+        <v>132.985246494367</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>406.9362247529266</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659484</v>
@@ -36452,7 +36452,7 @@
         <v>511.5201565133838</v>
       </c>
       <c r="P24" t="n">
-        <v>387.5620043125291</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817348</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>254.6558406676105</v>
       </c>
       <c r="L27" t="n">
-        <v>454.9327861733084</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659484</v>
@@ -36689,7 +36689,7 @@
         <v>511.5201565133838</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356841</v>
@@ -36920,13 +36920,13 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327294</v>
+        <v>532.2460412499719</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133838</v>
       </c>
       <c r="P30" t="n">
-        <v>387.5620043125291</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
         <v>138.4502995641581</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356841</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306265</v>
       </c>
       <c r="P33" t="n">
-        <v>387.5620043125291</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N36" t="n">
-        <v>141.2343689750668</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817348</v>
@@ -37625,7 +37625,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356841</v>
+        <v>406.9362247529266</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659484</v>
@@ -37634,13 +37634,13 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>69.06225485572118</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>243.9752689901976</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659484</v>
+        <v>112.0051939082857</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327294</v>
@@ -37877,7 +37877,7 @@
         <v>391.0116722749046</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>454.9327861733084</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659484</v>
@@ -38108,10 +38108,10 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
